--- a/static/army-monthly-pricing-RFI-pricing.xlsx
+++ b/static/army-monthly-pricing-RFI-pricing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10524"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="3" r:id="rId1"/>
@@ -1309,12 +1309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1335,6 +1329,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1386,7 +1386,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71513CB-DC0B-46FC-821F-B80673F7D2DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F71513CB-DC0B-46FC-821F-B80673F7D2DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1704,7 +1704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1718,47 +1718,47 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="159.42578125" customWidth="1"/>
+    <col min="2" max="2" width="159.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="60" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="60" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="60" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="60" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="60" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="60" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="60"/>
     </row>
   </sheetData>
@@ -1775,40 +1775,40 @@
       <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="12" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="12" width="24.44140625" customWidth="1"/>
     <col min="13" max="13" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1816,19 +1816,19 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-    </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+    </row>
+    <row r="12" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="55" t="s">
         <v>160</v>
       </c>
@@ -1836,75 +1836,75 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-    </row>
-    <row r="14" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+    </row>
+    <row r="14" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-    </row>
-    <row r="15" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+    </row>
+    <row r="15" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-    </row>
-    <row r="16" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+    </row>
+    <row r="16" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-    </row>
-    <row r="17" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+    </row>
+    <row r="17" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="56" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="58"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>157</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>2</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="L24" s="54"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>1</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="L25" s="54"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>3</v>
       </c>
@@ -1996,7 +1996,7 @@
       <c r="L26" s="54"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>4</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="L27" s="54"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>15</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="L28" s="54"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="L29" s="54"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="3"/>
@@ -2062,7 +2062,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>114</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>115</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="L32" s="54"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>116</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="L33" s="54"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>159</v>
       </c>
@@ -2154,7 +2154,7 @@
       <c r="L34" s="54"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>117</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="L35" s="54"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>29</v>
       </c>
@@ -2188,7 +2188,7 @@
       <c r="L36" s="54"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="3"/>
@@ -2202,7 +2202,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>20</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>21</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="L39" s="54"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>22</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="L40" s="54"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>29</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="L41" s="54"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="5"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2305,7 +2305,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>32</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>158</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>18</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="L45" s="54"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>8</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="L46" s="54"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>9</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="L47" s="54"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>10</v>
       </c>
@@ -2423,7 +2423,7 @@
       <c r="L48" s="54"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>11</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="L49" s="54"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>12</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="L50" s="54"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>13</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="L51" s="54"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>29</v>
       </c>
@@ -2487,7 +2487,7 @@
       <c r="L52" s="54"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="54" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>38</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>96</v>
       </c>
@@ -2541,7 +2541,7 @@
       <c r="L55" s="54"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>97</v>
       </c>
@@ -2557,7 +2557,7 @@
       <c r="L56" s="54"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>127</v>
       </c>
@@ -2573,7 +2573,7 @@
       <c r="L57" s="54"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>39</v>
       </c>
@@ -2589,14 +2589,14 @@
       <c r="L58" s="54"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C60" s="78" t="s">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C60" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
         <v>131</v>
       </c>
@@ -2609,135 +2609,135 @@
       <c r="E61" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F61" s="85" t="s">
+      <c r="F61" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="62" t="s">
         <v>132</v>
       </c>
       <c r="C62" s="64"/>
       <c r="D62" s="64"/>
       <c r="E62" s="64"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="80"/>
-      <c r="M62" s="81"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F62" s="77"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="78"/>
+      <c r="M62" s="79"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="62" t="s">
         <v>137</v>
       </c>
       <c r="C63" s="64"/>
       <c r="D63" s="64"/>
       <c r="E63" s="64"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="80"/>
-      <c r="L63" s="80"/>
-      <c r="M63" s="81"/>
-    </row>
-    <row r="64" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F63" s="77"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="78"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="78"/>
+      <c r="M63" s="79"/>
+    </row>
+    <row r="64" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B64" s="62" t="s">
         <v>133</v>
       </c>
       <c r="C64" s="64"/>
       <c r="D64" s="64"/>
       <c r="E64" s="64"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="81"/>
-    </row>
-    <row r="65" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="78"/>
+      <c r="L64" s="78"/>
+      <c r="M64" s="79"/>
+    </row>
+    <row r="65" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" s="62" t="s">
         <v>134</v>
       </c>
       <c r="C65" s="64"/>
       <c r="D65" s="64"/>
       <c r="E65" s="64"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="81"/>
-    </row>
-    <row r="66" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
+      <c r="M65" s="79"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="62" t="s">
         <v>135</v>
       </c>
       <c r="C66" s="64"/>
       <c r="D66" s="64"/>
       <c r="E66" s="64"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="81"/>
-    </row>
-    <row r="67" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F66" s="77"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="78"/>
+      <c r="M66" s="79"/>
+    </row>
+    <row r="67" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B67" s="62" t="s">
         <v>138</v>
       </c>
       <c r="C67" s="64"/>
       <c r="D67" s="64"/>
       <c r="E67" s="64"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="80"/>
-      <c r="K67" s="80"/>
-      <c r="L67" s="80"/>
-      <c r="M67" s="81"/>
-    </row>
-    <row r="68" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F67" s="77"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="79"/>
+    </row>
+    <row r="68" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B68" s="62" t="s">
         <v>136</v>
       </c>
       <c r="C68" s="64"/>
       <c r="D68" s="64"/>
       <c r="E68" s="64"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
-      <c r="M68" s="81"/>
-    </row>
-    <row r="69" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="77"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="78"/>
+      <c r="M68" s="79"/>
+    </row>
+    <row r="69" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="65" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="70"/>
       <c r="D70" s="71"/>
       <c r="E70" s="71"/>
@@ -2745,7 +2745,7 @@
       <c r="G70" s="71"/>
       <c r="H70" s="40"/>
     </row>
-    <row r="71" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C71" s="72" t="s">
         <v>142</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="73"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="74" t="s">
         <v>144</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="73"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="74" t="s">
         <v>145</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="73"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="74" t="s">
         <v>146</v>
       </c>
@@ -2793,7 +2793,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="73"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="74" t="s">
         <v>147</v>
       </c>
@@ -2805,7 +2805,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="73"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="75"/>
       <c r="D76" s="3"/>
       <c r="E76" s="76"/>
@@ -2813,7 +2813,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="73"/>
     </row>
-    <row r="77" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C77" s="72" t="s">
         <v>148</v>
       </c>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H77" s="73"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C78" s="74" t="s">
         <v>144</v>
       </c>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="H78" s="73"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C79" s="74" t="s">
         <v>145</v>
       </c>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="H79" s="73"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="74" t="s">
         <v>146</v>
       </c>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="H80" s="73"/>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C81" s="74" t="s">
         <v>147</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="H81" s="73"/>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C82" s="75"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -2915,7 +2915,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="73"/>
     </row>
-    <row r="83" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C83" s="72" t="s">
         <v>152</v>
       </c>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="H83" s="73"/>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C84" s="74" t="s">
         <v>144</v>
       </c>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="H84" s="73"/>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C85" s="74" t="s">
         <v>145</v>
       </c>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="H85" s="73"/>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C86" s="74" t="s">
         <v>146</v>
       </c>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H86" s="73"/>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C87" s="74" t="s">
         <v>147</v>
       </c>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="H87" s="73"/>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C88" s="75"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3018,18 +3018,25 @@
       <c r="G88" s="3"/>
       <c r="H88" s="73"/>
     </row>
-    <row r="89" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C89" s="82" t="s">
+    <row r="89" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C89" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="D89" s="83"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="84"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
     <mergeCell ref="F66:M66"/>
     <mergeCell ref="F67:M67"/>
     <mergeCell ref="F68:M68"/>
@@ -3039,13 +3046,6 @@
     <mergeCell ref="F63:M63"/>
     <mergeCell ref="F64:M64"/>
     <mergeCell ref="F65:M65"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3060,40 +3060,40 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="12" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="12" width="24.44140625" customWidth="1"/>
     <col min="13" max="13" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
@@ -3101,19 +3101,19 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-    </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+    </row>
+    <row r="12" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="55" t="s">
         <v>160</v>
       </c>
@@ -3121,75 +3121,75 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-    </row>
-    <row r="14" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+    </row>
+    <row r="14" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-    </row>
-    <row r="15" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+    </row>
+    <row r="15" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-    </row>
-    <row r="16" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+    </row>
+    <row r="16" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-    </row>
-    <row r="17" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+    </row>
+    <row r="17" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="56" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="58"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>157</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>2</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="L24" s="54"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>1</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="L25" s="54"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>3</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="L26" s="54"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>4</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="L27" s="54"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>15</v>
       </c>
@@ -3317,7 +3317,7 @@
       <c r="L28" s="54"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="L29" s="54"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="3"/>
@@ -3347,7 +3347,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>114</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>115</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="L32" s="54"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>116</v>
       </c>
@@ -3421,7 +3421,7 @@
       <c r="L33" s="54"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>159</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="L34" s="54"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>117</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="L35" s="54"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>29</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="L36" s="54"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="3"/>
@@ -3487,7 +3487,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>20</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>21</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="L39" s="54"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>22</v>
       </c>
@@ -3561,7 +3561,7 @@
       <c r="L40" s="54"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>29</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="L41" s="54"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="5"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3590,7 +3590,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>32</v>
       </c>
@@ -3606,7 +3606,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>158</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>18</v>
       </c>
@@ -3660,7 +3660,7 @@
       <c r="L45" s="54"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>8</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="L46" s="54"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>9</v>
       </c>
@@ -3692,7 +3692,7 @@
       <c r="L47" s="54"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>10</v>
       </c>
@@ -3708,7 +3708,7 @@
       <c r="L48" s="54"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>11</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="L49" s="54"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>12</v>
       </c>
@@ -3740,7 +3740,7 @@
       <c r="L50" s="54"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>13</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="L51" s="54"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>29</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="L52" s="54"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="54" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>38</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>96</v>
       </c>
@@ -3826,7 +3826,7 @@
       <c r="L55" s="54"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>97</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="L56" s="54"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>127</v>
       </c>
@@ -3858,7 +3858,7 @@
       <c r="L57" s="54"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>39</v>
       </c>
@@ -3874,14 +3874,14 @@
       <c r="L58" s="54"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C60" s="78" t="s">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C60" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
         <v>131</v>
       </c>
@@ -3894,135 +3894,135 @@
       <c r="E61" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F61" s="85" t="s">
+      <c r="F61" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="62" t="s">
         <v>132</v>
       </c>
       <c r="C62" s="64"/>
       <c r="D62" s="64"/>
       <c r="E62" s="64"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="80"/>
-      <c r="M62" s="81"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F62" s="77"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="78"/>
+      <c r="M62" s="79"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="62" t="s">
         <v>137</v>
       </c>
       <c r="C63" s="64"/>
       <c r="D63" s="64"/>
       <c r="E63" s="64"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="80"/>
-      <c r="L63" s="80"/>
-      <c r="M63" s="81"/>
-    </row>
-    <row r="64" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F63" s="77"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="78"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="78"/>
+      <c r="M63" s="79"/>
+    </row>
+    <row r="64" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B64" s="62" t="s">
         <v>133</v>
       </c>
       <c r="C64" s="64"/>
       <c r="D64" s="64"/>
       <c r="E64" s="64"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="81"/>
-    </row>
-    <row r="65" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="78"/>
+      <c r="L64" s="78"/>
+      <c r="M64" s="79"/>
+    </row>
+    <row r="65" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" s="62" t="s">
         <v>134</v>
       </c>
       <c r="C65" s="64"/>
       <c r="D65" s="64"/>
       <c r="E65" s="64"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="81"/>
-    </row>
-    <row r="66" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
+      <c r="M65" s="79"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="62" t="s">
         <v>135</v>
       </c>
       <c r="C66" s="64"/>
       <c r="D66" s="64"/>
       <c r="E66" s="64"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="81"/>
-    </row>
-    <row r="67" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F66" s="77"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="78"/>
+      <c r="M66" s="79"/>
+    </row>
+    <row r="67" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B67" s="62" t="s">
         <v>138</v>
       </c>
       <c r="C67" s="64"/>
       <c r="D67" s="64"/>
       <c r="E67" s="64"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="80"/>
-      <c r="K67" s="80"/>
-      <c r="L67" s="80"/>
-      <c r="M67" s="81"/>
-    </row>
-    <row r="68" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F67" s="77"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="79"/>
+    </row>
+    <row r="68" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B68" s="62" t="s">
         <v>136</v>
       </c>
       <c r="C68" s="64"/>
       <c r="D68" s="64"/>
       <c r="E68" s="64"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
-      <c r="M68" s="81"/>
-    </row>
-    <row r="69" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="77"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="78"/>
+      <c r="M68" s="79"/>
+    </row>
+    <row r="69" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="65" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="70"/>
       <c r="D70" s="71"/>
       <c r="E70" s="71"/>
@@ -4030,7 +4030,7 @@
       <c r="G70" s="71"/>
       <c r="H70" s="40"/>
     </row>
-    <row r="71" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C71" s="72" t="s">
         <v>142</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="73"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="74" t="s">
         <v>144</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="73"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="74" t="s">
         <v>145</v>
       </c>
@@ -4066,7 +4066,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="73"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="74" t="s">
         <v>146</v>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="73"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="74" t="s">
         <v>147</v>
       </c>
@@ -4090,7 +4090,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="73"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="75"/>
       <c r="D76" s="3"/>
       <c r="E76" s="76"/>
@@ -4098,7 +4098,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="73"/>
     </row>
-    <row r="77" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C77" s="72" t="s">
         <v>148</v>
       </c>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="H77" s="73"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C78" s="74" t="s">
         <v>144</v>
       </c>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="H78" s="73"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C79" s="74" t="s">
         <v>145</v>
       </c>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="H79" s="73"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="74" t="s">
         <v>146</v>
       </c>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="H80" s="73"/>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C81" s="74" t="s">
         <v>147</v>
       </c>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="H81" s="73"/>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C82" s="75"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4200,7 +4200,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="73"/>
     </row>
-    <row r="83" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C83" s="72" t="s">
         <v>152</v>
       </c>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="H83" s="73"/>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C84" s="74" t="s">
         <v>144</v>
       </c>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="H84" s="73"/>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C85" s="74" t="s">
         <v>145</v>
       </c>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="H85" s="73"/>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C86" s="74" t="s">
         <v>146</v>
       </c>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="H86" s="73"/>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C87" s="74" t="s">
         <v>147</v>
       </c>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="H87" s="73"/>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C88" s="75"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4303,24 +4303,18 @@
       <c r="G88" s="3"/>
       <c r="H88" s="73"/>
     </row>
-    <row r="89" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C89" s="82" t="s">
+    <row r="89" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C89" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="D89" s="83"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="84"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
     <mergeCell ref="F66:M66"/>
     <mergeCell ref="F67:M67"/>
     <mergeCell ref="F68:M68"/>
@@ -4331,6 +4325,12 @@
     <mergeCell ref="F63:M63"/>
     <mergeCell ref="F64:M64"/>
     <mergeCell ref="F65:M65"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4345,27 +4345,27 @@
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="67.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
     <col min="12" max="12" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="89" t="s">
         <v>68</v>
       </c>
@@ -4379,33 +4379,33 @@
       <c r="J3" s="89"/>
       <c r="K3" s="89"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="28" t="s">
         <v>118</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="88"/>
     </row>
-    <row r="14" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
         <v>40</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
         <v>41</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="K15" s="30"/>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
         <v>42</v>
       </c>
@@ -4490,7 +4490,7 @@
       <c r="K16" s="30"/>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
         <v>43</v>
       </c>
@@ -4505,7 +4505,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="35"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="27" t="s">
         <v>44</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="K18" s="30"/>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
         <v>45</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="35"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
         <v>46</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="K20" s="30"/>
       <c r="L20" s="35"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
         <v>47</v>
       </c>
@@ -4565,7 +4565,7 @@
       <c r="K21" s="31"/>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
         <v>48</v>
       </c>
@@ -4580,7 +4580,7 @@
       <c r="K22" s="30"/>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
         <v>49</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="K23" s="30"/>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
         <v>50</v>
       </c>
@@ -4610,7 +4610,7 @@
       <c r="K24" s="30"/>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
         <v>51</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="K25" s="31"/>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
         <v>52</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
         <v>53</v>
       </c>
@@ -4655,7 +4655,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
         <v>54</v>
       </c>
@@ -4670,7 +4670,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="26" t="s">
         <v>69</v>
       </c>
@@ -4685,7 +4685,7 @@
       <c r="K29" s="31"/>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
         <v>55</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
         <v>56</v>
       </c>
@@ -4715,7 +4715,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
         <v>57</v>
       </c>
@@ -4730,7 +4730,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="27" t="s">
         <v>58</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="37"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="27" t="s">
         <v>59</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="37"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="27" t="s">
         <v>60</v>
       </c>
@@ -4775,7 +4775,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="37"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="26" t="s">
         <v>129</v>
       </c>
@@ -4790,7 +4790,7 @@
       <c r="K36" s="31"/>
       <c r="L36" s="36"/>
     </row>
-    <row r="37" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="63" t="s">
         <v>130</v>
       </c>
@@ -4805,8 +4805,8 @@
       <c r="K37" s="33"/>
       <c r="L37" s="38"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="28" t="s">
         <v>119</v>
       </c>
@@ -4826,7 +4826,7 @@
       <c r="J41" s="87"/>
       <c r="K41" s="88"/>
     </row>
-    <row r="42" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B42" s="39" t="s">
         <v>40</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="27" t="s">
         <v>41</v>
       </c>
@@ -4876,7 +4876,7 @@
       <c r="K43" s="30"/>
       <c r="L43" s="35"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="27" t="s">
         <v>42</v>
       </c>
@@ -4891,7 +4891,7 @@
       <c r="K44" s="30"/>
       <c r="L44" s="35"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="27" t="s">
         <v>43</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="K45" s="30"/>
       <c r="L45" s="35"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="27" t="s">
         <v>44</v>
       </c>
@@ -4921,7 +4921,7 @@
       <c r="K46" s="30"/>
       <c r="L46" s="35"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="27" t="s">
         <v>45</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="K47" s="30"/>
       <c r="L47" s="35"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="27" t="s">
         <v>46</v>
       </c>
@@ -4951,7 +4951,7 @@
       <c r="K48" s="30"/>
       <c r="L48" s="35"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="26" t="s">
         <v>47</v>
       </c>
@@ -4966,7 +4966,7 @@
       <c r="K49" s="31"/>
       <c r="L49" s="36"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="27" t="s">
         <v>48</v>
       </c>
@@ -4981,7 +4981,7 @@
       <c r="K50" s="30"/>
       <c r="L50" s="35"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="27" t="s">
         <v>49</v>
       </c>
@@ -4996,7 +4996,7 @@
       <c r="K51" s="30"/>
       <c r="L51" s="35"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" s="27" t="s">
         <v>50</v>
       </c>
@@ -5011,7 +5011,7 @@
       <c r="K52" s="30"/>
       <c r="L52" s="35"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="26" t="s">
         <v>51</v>
       </c>
@@ -5026,7 +5026,7 @@
       <c r="K53" s="31"/>
       <c r="L53" s="36"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" s="27" t="s">
         <v>52</v>
       </c>
@@ -5041,7 +5041,7 @@
       <c r="K54" s="32"/>
       <c r="L54" s="37"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="27" t="s">
         <v>53</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="K55" s="32"/>
       <c r="L55" s="37"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="27" t="s">
         <v>54</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="K56" s="32"/>
       <c r="L56" s="37"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" s="26" t="s">
         <v>69</v>
       </c>
@@ -5086,7 +5086,7 @@
       <c r="K57" s="31"/>
       <c r="L57" s="36"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" s="27" t="s">
         <v>55</v>
       </c>
@@ -5101,7 +5101,7 @@
       <c r="K58" s="32"/>
       <c r="L58" s="37"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" s="27" t="s">
         <v>56</v>
       </c>
@@ -5116,7 +5116,7 @@
       <c r="K59" s="32"/>
       <c r="L59" s="37"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" s="27" t="s">
         <v>57</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="K60" s="32"/>
       <c r="L60" s="37"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" s="27" t="s">
         <v>58</v>
       </c>
@@ -5146,7 +5146,7 @@
       <c r="K61" s="32"/>
       <c r="L61" s="37"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" s="27" t="s">
         <v>59</v>
       </c>
@@ -5161,7 +5161,7 @@
       <c r="K62" s="32"/>
       <c r="L62" s="37"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="27" t="s">
         <v>60</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="K63" s="33"/>
       <c r="L63" s="38"/>
     </row>
-    <row r="65" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" s="59" t="s">
         <v>123</v>
       </c>
@@ -5209,19 +5209,19 @@
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="88" customWidth="1"/>
-    <col min="3" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="52.42578125" customWidth="1"/>
+    <col min="3" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="52.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="89" t="s">
         <v>94</v>
       </c>
@@ -5235,33 +5235,33 @@
       <c r="J2" s="89"/>
       <c r="K2" s="89"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="28" t="s">
         <v>122</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="K11" s="88"/>
       <c r="L11" s="40"/>
     </row>
-    <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
         <v>99</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="42" t="s">
         <v>84</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="K13" s="30"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="42" t="s">
         <v>83</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="K14" s="30"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="42" t="s">
         <v>85</v>
       </c>
@@ -5362,7 +5362,7 @@
       <c r="K15" s="30"/>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="42" t="s">
         <v>82</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="K16" s="30"/>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="42" t="s">
         <v>81</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="35"/>
     </row>
-    <row r="18" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="42" t="s">
         <v>86</v>
       </c>
@@ -5407,7 +5407,7 @@
       <c r="K18" s="30"/>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="43" t="s">
         <v>87</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="K19" s="31"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="42" t="s">
         <v>88</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="K20" s="30"/>
       <c r="L20" s="35"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="42" t="s">
         <v>70</v>
       </c>
@@ -5452,7 +5452,7 @@
       <c r="K21" s="30"/>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="42" t="s">
         <v>80</v>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="K22" s="30"/>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="42" t="s">
         <v>92</v>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="K23" s="30"/>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="42" t="s">
         <v>75</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="K24" s="30"/>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="42" t="s">
         <v>76</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="K25" s="30"/>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="42" t="s">
         <v>91</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="K26" s="30"/>
       <c r="L26" s="35"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="42" t="s">
         <v>77</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="K27" s="30"/>
       <c r="L27" s="35"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="42" t="s">
         <v>71</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="K28" s="30"/>
       <c r="L28" s="35"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="42" t="s">
         <v>72</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="K29" s="30"/>
       <c r="L29" s="35"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="42" t="s">
         <v>78</v>
       </c>
@@ -5587,7 +5587,7 @@
       <c r="K30" s="30"/>
       <c r="L30" s="35"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="42" t="s">
         <v>73</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="K31" s="30"/>
       <c r="L31" s="35"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="42" t="s">
         <v>79</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="K32" s="30"/>
       <c r="L32" s="35"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="42" t="s">
         <v>90</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="K33" s="30"/>
       <c r="L33" s="35"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="42" t="s">
         <v>74</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="K34" s="30"/>
       <c r="L34" s="35"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="42" t="s">
         <v>89</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="K35" s="30"/>
       <c r="L35" s="35"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="48" t="s">
         <v>93</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="K36" s="51"/>
       <c r="L36" s="52"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="44" t="s">
         <v>29</v>
       </c>
@@ -5692,8 +5692,8 @@
       <c r="K37" s="46"/>
       <c r="L37" s="47"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="28" t="s">
         <v>119</v>
       </c>
@@ -5714,7 +5714,7 @@
       <c r="K39" s="88"/>
       <c r="L39" s="40"/>
     </row>
-    <row r="40" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B40" s="41" t="s">
         <v>99</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="42" t="s">
         <v>84</v>
       </c>
@@ -5764,7 +5764,7 @@
       <c r="K41" s="30"/>
       <c r="L41" s="35"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="42" t="s">
         <v>83</v>
       </c>
@@ -5779,7 +5779,7 @@
       <c r="K42" s="30"/>
       <c r="L42" s="35"/>
     </row>
-    <row r="43" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B43" s="42" t="s">
         <v>85</v>
       </c>
@@ -5794,7 +5794,7 @@
       <c r="K43" s="30"/>
       <c r="L43" s="35"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="42" t="s">
         <v>82</v>
       </c>
@@ -5809,7 +5809,7 @@
       <c r="K44" s="30"/>
       <c r="L44" s="35"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="42" t="s">
         <v>81</v>
       </c>
@@ -5824,7 +5824,7 @@
       <c r="K45" s="30"/>
       <c r="L45" s="35"/>
     </row>
-    <row r="46" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="42" t="s">
         <v>86</v>
       </c>
@@ -5839,7 +5839,7 @@
       <c r="K46" s="30"/>
       <c r="L46" s="35"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="43" t="s">
         <v>87</v>
       </c>
@@ -5854,7 +5854,7 @@
       <c r="K47" s="31"/>
       <c r="L47" s="36"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="42" t="s">
         <v>88</v>
       </c>
@@ -5869,7 +5869,7 @@
       <c r="K48" s="30"/>
       <c r="L48" s="35"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="42" t="s">
         <v>70</v>
       </c>
@@ -5884,7 +5884,7 @@
       <c r="K49" s="30"/>
       <c r="L49" s="35"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="42" t="s">
         <v>80</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="K50" s="30"/>
       <c r="L50" s="35"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="42" t="s">
         <v>92</v>
       </c>
@@ -5914,7 +5914,7 @@
       <c r="K51" s="30"/>
       <c r="L51" s="35"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" s="42" t="s">
         <v>75</v>
       </c>
@@ -5929,7 +5929,7 @@
       <c r="K52" s="30"/>
       <c r="L52" s="35"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="42" t="s">
         <v>76</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="K53" s="30"/>
       <c r="L53" s="35"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" s="42" t="s">
         <v>91</v>
       </c>
@@ -5959,7 +5959,7 @@
       <c r="K54" s="30"/>
       <c r="L54" s="35"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="42" t="s">
         <v>77</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="K55" s="30"/>
       <c r="L55" s="35"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="42" t="s">
         <v>71</v>
       </c>
@@ -5989,7 +5989,7 @@
       <c r="K56" s="30"/>
       <c r="L56" s="35"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" s="42" t="s">
         <v>72</v>
       </c>
@@ -6004,7 +6004,7 @@
       <c r="K57" s="30"/>
       <c r="L57" s="35"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" s="42" t="s">
         <v>78</v>
       </c>
@@ -6019,7 +6019,7 @@
       <c r="K58" s="30"/>
       <c r="L58" s="35"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" s="42" t="s">
         <v>73</v>
       </c>
@@ -6034,7 +6034,7 @@
       <c r="K59" s="30"/>
       <c r="L59" s="35"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" s="42" t="s">
         <v>79</v>
       </c>
@@ -6049,7 +6049,7 @@
       <c r="K60" s="30"/>
       <c r="L60" s="35"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" s="42" t="s">
         <v>90</v>
       </c>
@@ -6064,7 +6064,7 @@
       <c r="K61" s="30"/>
       <c r="L61" s="35"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" s="42" t="s">
         <v>74</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="K62" s="30"/>
       <c r="L62" s="35"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B63" s="42" t="s">
         <v>89</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="K63" s="30"/>
       <c r="L63" s="35"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B64" s="48" t="s">
         <v>93</v>
       </c>
@@ -6109,7 +6109,7 @@
       <c r="K64" s="51"/>
       <c r="L64" s="52"/>
     </row>
-    <row r="65" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="44" t="s">
         <v>29</v>
       </c>
@@ -6124,7 +6124,7 @@
       <c r="K65" s="46"/>
       <c r="L65" s="47"/>
     </row>
-    <row r="67" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B67" s="59" t="s">
         <v>124</v>
       </c>
